--- a/509/16-DanhGiaTieuChi-509.xlsx
+++ b/509/16-DanhGiaTieuChi-509.xlsx
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
